--- a/Assets/Shared/ExcelImporter/Excels/Enemy/EnemyDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Enemy/EnemyDataSheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Enemy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungwoo\Documents\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Enemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CE55A6-84EA-4095-B588-6A93D0190A69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyDatas" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>Name</t>
   </si>
@@ -93,10 +92,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>MagicAttack</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Shield</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -118,12 +113,42 @@
   </si>
   <si>
     <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Critical</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Magic</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>al</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Attack</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -472,14 +497,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N1000"/>
+  <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -493,12 +518,12 @@
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="6.140625" customWidth="1"/>
     <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="42.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
@@ -508,8 +533,8 @@
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>21</v>
+      <c r="D1" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>2</v>
@@ -521,22 +546,25 @@
         <v>4</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="K1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>0</v>
       </c>
@@ -565,16 +593,19 @@
         <v>100</v>
       </c>
       <c r="J2" s="10">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="K2" s="10">
+        <v>5</v>
+      </c>
+      <c r="L2" s="10">
         <v>77</v>
       </c>
-      <c r="L2" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M2" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -606,13 +637,16 @@
         <v>50</v>
       </c>
       <c r="K3" s="10">
+        <v>5</v>
+      </c>
+      <c r="L3" s="10">
         <v>77</v>
       </c>
-      <c r="L3" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M3" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>2</v>
       </c>
@@ -644,14 +678,17 @@
         <v>7</v>
       </c>
       <c r="K4" s="10">
+        <v>5</v>
+      </c>
+      <c r="L4" s="10">
         <v>81</v>
       </c>
-      <c r="L4" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>3</v>
       </c>
@@ -683,14 +720,17 @@
         <v>6</v>
       </c>
       <c r="K5" s="10">
+        <v>5</v>
+      </c>
+      <c r="L5" s="10">
         <v>81</v>
       </c>
-      <c r="L5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>4</v>
       </c>
@@ -722,14 +762,17 @@
         <v>5</v>
       </c>
       <c r="K6" s="10">
+        <v>5</v>
+      </c>
+      <c r="L6" s="10">
         <v>78</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="M6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>5</v>
       </c>
@@ -761,14 +804,17 @@
         <v>5</v>
       </c>
       <c r="K7" s="10">
+        <v>5</v>
+      </c>
+      <c r="L7" s="10">
         <v>78</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="M7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>6</v>
       </c>
@@ -800,14 +846,17 @@
         <v>5</v>
       </c>
       <c r="K8" s="10">
+        <v>5</v>
+      </c>
+      <c r="L8" s="10">
         <v>78</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="M8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>7</v>
       </c>
@@ -839,14 +888,17 @@
         <v>7</v>
       </c>
       <c r="K9" s="10">
+        <v>5</v>
+      </c>
+      <c r="L9" s="10">
         <v>82</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="M9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>8</v>
       </c>
@@ -878,14 +930,17 @@
         <v>6</v>
       </c>
       <c r="K10" s="10">
+        <v>5</v>
+      </c>
+      <c r="L10" s="10">
         <v>82</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="M10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="4"/>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>9</v>
       </c>
@@ -917,14 +972,17 @@
         <v>5</v>
       </c>
       <c r="K11" s="10">
+        <v>5</v>
+      </c>
+      <c r="L11" s="10">
         <v>78</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="M11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N11" s="4"/>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O11" s="4"/>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>10</v>
       </c>
@@ -955,15 +1013,18 @@
       <c r="J12" s="10">
         <v>71</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="10">
+        <v>5</v>
+      </c>
+      <c r="L12" s="14">
         <v>71</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="M12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="4"/>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="5"/>
       <c r="C13" s="3"/>
@@ -974,10 +1035,11 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="1"/>
-      <c r="M13" s="4"/>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K13" s="3"/>
+      <c r="L13" s="1"/>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="5"/>
       <c r="C14" s="3"/>
@@ -988,10 +1050,11 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="1"/>
-      <c r="M14" s="4"/>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K14" s="3"/>
+      <c r="L14" s="1"/>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="5"/>
       <c r="C15" s="3"/>
@@ -1002,10 +1065,11 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="1"/>
-      <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K15" s="3"/>
+      <c r="L15" s="1"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="5"/>
       <c r="C16" s="3"/>
@@ -1016,9 +1080,10 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K16" s="3"/>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="5"/>
       <c r="C17" s="3"/>
@@ -1029,9 +1094,10 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K17" s="3"/>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="5"/>
       <c r="C18" s="3"/>
@@ -1042,9 +1108,10 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K18" s="3"/>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="5"/>
       <c r="C19" s="3"/>
@@ -1055,9 +1122,10 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K19" s="3"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="5"/>
       <c r="C20" s="3"/>
@@ -1068,9 +1136,10 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K20" s="3"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="5"/>
       <c r="C21" s="3"/>
@@ -1081,9 +1150,10 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K21" s="3"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="5"/>
       <c r="C22" s="3"/>
@@ -1094,9 +1164,10 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K22" s="3"/>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="5"/>
       <c r="C23" s="3"/>
@@ -1107,9 +1178,10 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K23" s="3"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="5"/>
       <c r="C24" s="3"/>
@@ -1120,9 +1192,10 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K24" s="3"/>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="5"/>
       <c r="C25" s="3"/>
@@ -1133,9 +1206,10 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K25" s="3"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="5"/>
       <c r="C26" s="3"/>
@@ -1146,9 +1220,10 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K26" s="3"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="5"/>
       <c r="C27" s="3"/>
@@ -1159,9 +1234,10 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K27" s="3"/>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="5"/>
       <c r="C28" s="3"/>
@@ -1172,9 +1248,10 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K28" s="3"/>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="5"/>
       <c r="C29" s="3"/>
@@ -1185,9 +1262,10 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
-      <c r="K29" s="1"/>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K29" s="3"/>
+      <c r="L29" s="1"/>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="5"/>
       <c r="C30" s="3"/>
@@ -1198,10 +1276,11 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
-      <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="1"/>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Assets/Shared/ExcelImporter/Excels/Enemy/EnemyDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Enemy/EnemyDataSheet.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungwoo\Documents\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Enemy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Enemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1C38ED-0375-4015-981E-F68F99278F7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="EnemyDatas" sheetId="1" r:id="rId1"/>
+    <sheet name="EnemyExcelDatas" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -119,36 +120,18 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>Magic</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>al</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Attack</t>
-    </r>
+    <t>MagicalAttack</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnimatorPath</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -497,14 +480,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -563,6 +546,9 @@
       <c r="M1" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="N1" s="8" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
@@ -604,6 +590,7 @@
       <c r="M2" s="12" t="s">
         <v>22</v>
       </c>
+      <c r="N2" s="12"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
@@ -645,6 +632,7 @@
       <c r="M3" s="12" t="s">
         <v>23</v>
       </c>
+      <c r="N3" s="12"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
@@ -686,6 +674,7 @@
       <c r="M4" s="12" t="s">
         <v>24</v>
       </c>
+      <c r="N4" s="12"/>
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -728,6 +717,7 @@
       <c r="M5" s="12" t="s">
         <v>25</v>
       </c>
+      <c r="N5" s="12"/>
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -770,6 +760,7 @@
       <c r="M6" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="N6" s="12"/>
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -812,6 +803,7 @@
       <c r="M7" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="N7" s="12"/>
       <c r="O7" s="1"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -854,6 +846,7 @@
       <c r="M8" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="N8" s="12"/>
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -896,6 +889,7 @@
       <c r="M9" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="N9" s="12"/>
       <c r="O9" s="1"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -938,6 +932,7 @@
       <c r="M10" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="N10" s="12"/>
       <c r="O10" s="4"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -980,6 +975,7 @@
       <c r="M11" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="N11" s="12"/>
       <c r="O11" s="4"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1022,7 +1018,7 @@
       <c r="M12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="4"/>
+      <c r="N12" s="12"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
@@ -2250,7 +2246,7 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Assets/Shared/ExcelImporter/Excels/Enemy/EnemyDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Enemy/EnemyDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Enemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1C38ED-0375-4015-981E-F68F99278F7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458B0820-D3F4-405B-BB43-F4CA95F16047}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,7 +124,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>AnimatorPath</t>
+    <t>RuntimeAnimatorControllerPath</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -504,6 +504,7 @@
     <col min="10" max="11" width="11.42578125" customWidth="1"/>
     <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="33.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/Assets/Shared/ExcelImporter/Excels/Enemy/EnemyDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Enemy/EnemyDataSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Enemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458B0820-D3F4-405B-BB43-F4CA95F16047}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1B15D2-A8B1-4B79-8615-4A34C6D04055}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-210" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyExcelDatas" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>Name</t>
   </si>
@@ -97,22 +97,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Images/Old Character/Character_16</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Old Character/Character_28</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Old Character/Character_FairyDragon</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>Images/Old Character/Character_Doom</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>Accuracy</t>
   </si>
   <si>
@@ -126,6 +110,18 @@
   <si>
     <t>RuntimeAnimatorControllerPath</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Enemy/1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Enemy/2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Enemy/3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -487,7 +483,7 @@
   <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -518,7 +514,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>2</v>
@@ -533,13 +529,13 @@
         <v>21</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>6</v>
@@ -548,7 +544,7 @@
         <v>18</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -589,7 +585,7 @@
         <v>77</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N2" s="12"/>
     </row>
@@ -631,7 +627,7 @@
         <v>77</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N3" s="12"/>
     </row>
@@ -673,7 +669,7 @@
         <v>81</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N4" s="12"/>
       <c r="O4" s="1"/>
@@ -716,7 +712,7 @@
         <v>81</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N5" s="12"/>
       <c r="O5" s="1"/>

--- a/Assets/Shared/ExcelImporter/Excels/Enemy/EnemyDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Enemy/EnemyDataSheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Enemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1B15D2-A8B1-4B79-8615-4A34C6D04055}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8649C0-A8BB-4A3D-9937-85C5ACE42CB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-210" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -46,39 +46,6 @@
   </si>
   <si>
     <t>AttackSpeed</t>
-  </si>
-  <si>
-    <t>방어슬라임</t>
-  </si>
-  <si>
-    <t>마방슬라임</t>
-  </si>
-  <si>
-    <t>근접슬라임</t>
-  </si>
-  <si>
-    <t>궁수슬라임</t>
-  </si>
-  <si>
-    <t>법사슬라임</t>
-  </si>
-  <si>
-    <t>방어킹슬라임</t>
-  </si>
-  <si>
-    <t>마방킹슬라임</t>
-  </si>
-  <si>
-    <t>근접킹슬라임</t>
-  </si>
-  <si>
-    <t>궁수킹슬라임</t>
-  </si>
-  <si>
-    <t>법사킹슬라임</t>
-  </si>
-  <si>
-    <t>물고71</t>
   </si>
   <si>
     <t>ImagePath</t>
@@ -89,10 +56,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Images/Tribe/Logo_HUMAN</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>Shield</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -112,15 +75,243 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Images/Enemy/1</t>
+    <r>
+      <t>스컬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>녹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>스컬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>황</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>스컬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자주</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Images/Tribe/Logo_HUMAN</t>
+  </si>
+  <si>
+    <t>고고고양이</t>
+  </si>
+  <si>
+    <t>낭만고양이</t>
+  </si>
+  <si>
+    <t>삼색고양이</t>
+  </si>
+  <si>
+    <t>짜장고양이</t>
+  </si>
+  <si>
+    <t>돼지고양이</t>
+  </si>
+  <si>
+    <t>천사고양이</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">스컬 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>왕</t>
+    </r>
+  </si>
+  <si>
+    <t>Images/Enemy/Skull/Green</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Images/Enemy/2</t>
+    <t>Images/Enemy/Skull/Yellow</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>Images/Enemy/3</t>
+    <t>Images/Enemy/Skull/Purple</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Enemy/Skull/Blue</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스컬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스컬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>적</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Enemy/Skull/Red</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Enemy/Skull/King</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -128,7 +319,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -184,8 +375,47 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,6 +426,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -226,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -237,9 +479,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -249,17 +488,21 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -483,7 +726,7 @@
   <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -504,649 +747,873 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="A1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="8">
+        <v>50</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8">
+        <v>200</v>
+      </c>
+      <c r="F2" s="8">
+        <v>5</v>
+      </c>
+      <c r="G2" s="8">
+        <v>5</v>
+      </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
+      <c r="I2" s="8">
+        <v>100</v>
+      </c>
+      <c r="J2" s="8">
+        <v>3</v>
+      </c>
+      <c r="K2" s="8">
+        <v>5</v>
+      </c>
+      <c r="L2" s="8">
+        <v>77</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="8">
+        <v>58</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8">
+        <v>240</v>
+      </c>
+      <c r="F3" s="8">
+        <v>7</v>
+      </c>
+      <c r="G3" s="8">
+        <v>7</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8">
+        <v>100</v>
+      </c>
+      <c r="J3" s="8">
+        <v>3</v>
+      </c>
+      <c r="K3" s="8">
+        <v>5</v>
+      </c>
+      <c r="L3" s="8">
+        <v>78</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="9"/>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="8">
+        <v>66</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>280</v>
+      </c>
+      <c r="F4" s="8">
+        <v>9</v>
+      </c>
+      <c r="G4" s="8">
+        <v>9</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
+        <v>100</v>
+      </c>
+      <c r="J4" s="8">
+        <v>3</v>
+      </c>
+      <c r="K4" s="8">
+        <v>5</v>
+      </c>
+      <c r="L4" s="8">
+        <v>79</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="9"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>3</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="8">
+        <v>74</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>320</v>
+      </c>
+      <c r="F5" s="8">
+        <v>10</v>
+      </c>
+      <c r="G5" s="8">
+        <v>10</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8">
+        <v>100</v>
+      </c>
+      <c r="J5" s="8">
+        <v>3</v>
+      </c>
+      <c r="K5" s="8">
+        <v>5</v>
+      </c>
+      <c r="L5" s="8">
+        <v>80</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="9"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="8">
+        <v>82</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>360</v>
+      </c>
+      <c r="F6" s="8">
+        <v>15</v>
+      </c>
+      <c r="G6" s="8">
+        <v>15</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
+        <v>100</v>
+      </c>
+      <c r="J6" s="8">
+        <v>3</v>
+      </c>
+      <c r="K6" s="8">
+        <v>5</v>
+      </c>
+      <c r="L6" s="8">
+        <v>81</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="9"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="7" t="s">
+      <c r="C7" s="11">
+        <v>110</v>
+      </c>
+      <c r="D7" s="11">
+        <v>10</v>
+      </c>
+      <c r="E7" s="11">
+        <v>2000</v>
+      </c>
+      <c r="F7" s="11">
         <v>21</v>
       </c>
-      <c r="I1" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="8" t="s">
+      <c r="G7" s="11">
+        <v>21</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11">
+        <v>100</v>
+      </c>
+      <c r="J7" s="11">
         <v>5</v>
       </c>
-      <c r="K1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="10">
-        <v>40</v>
-      </c>
-      <c r="D2" s="10">
-        <v>0</v>
-      </c>
-      <c r="E2" s="10">
-        <v>20</v>
-      </c>
-      <c r="F2" s="10">
-        <v>20</v>
-      </c>
-      <c r="G2" s="10">
-        <v>10</v>
-      </c>
-      <c r="H2" s="10">
-        <v>0</v>
-      </c>
-      <c r="I2" s="10">
-        <v>100</v>
-      </c>
-      <c r="J2" s="10">
+      <c r="K7" s="11">
         <v>5</v>
       </c>
-      <c r="K2" s="10">
-        <v>5</v>
-      </c>
-      <c r="L2" s="10">
-        <v>77</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="12"/>
-    </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>1</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="10">
-        <v>40</v>
-      </c>
-      <c r="D3" s="10">
-        <v>0</v>
-      </c>
-      <c r="E3" s="10">
-        <v>20</v>
-      </c>
-      <c r="F3" s="10">
-        <v>10</v>
-      </c>
-      <c r="G3" s="10">
-        <v>20</v>
-      </c>
-      <c r="H3" s="10">
-        <v>0</v>
-      </c>
-      <c r="I3" s="10">
-        <v>100</v>
-      </c>
-      <c r="J3" s="10">
-        <v>50</v>
-      </c>
-      <c r="K3" s="10">
-        <v>5</v>
-      </c>
-      <c r="L3" s="10">
-        <v>77</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="12"/>
-    </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>2</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="10">
-        <v>50</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0</v>
-      </c>
-      <c r="E4" s="10">
-        <v>20</v>
-      </c>
-      <c r="F4" s="10">
-        <v>5</v>
-      </c>
-      <c r="G4" s="10">
-        <v>5</v>
-      </c>
-      <c r="H4" s="10">
-        <v>0</v>
-      </c>
-      <c r="I4" s="10">
-        <v>100</v>
-      </c>
-      <c r="J4" s="10">
-        <v>7</v>
-      </c>
-      <c r="K4" s="10">
-        <v>5</v>
-      </c>
-      <c r="L4" s="10">
-        <v>81</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="N4" s="12"/>
-      <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>3</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="10">
-        <v>50</v>
-      </c>
-      <c r="D5" s="10">
-        <v>0</v>
-      </c>
-      <c r="E5" s="10">
-        <v>20</v>
-      </c>
-      <c r="F5" s="10">
-        <v>10</v>
-      </c>
-      <c r="G5" s="10">
-        <v>10</v>
-      </c>
-      <c r="H5" s="10">
-        <v>0</v>
-      </c>
-      <c r="I5" s="10">
-        <v>100</v>
-      </c>
-      <c r="J5" s="10">
-        <v>6</v>
-      </c>
-      <c r="K5" s="10">
-        <v>5</v>
-      </c>
-      <c r="L5" s="10">
-        <v>81</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" s="12"/>
-      <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>4</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="10">
-        <v>0</v>
-      </c>
-      <c r="D6" s="10">
-        <v>50</v>
-      </c>
-      <c r="E6" s="10">
-        <v>20</v>
-      </c>
-      <c r="F6" s="10">
-        <v>10</v>
-      </c>
-      <c r="G6" s="10">
-        <v>15</v>
-      </c>
-      <c r="H6" s="10">
-        <v>0</v>
-      </c>
-      <c r="I6" s="10">
-        <v>100</v>
-      </c>
-      <c r="J6" s="10">
-        <v>5</v>
-      </c>
-      <c r="K6" s="10">
-        <v>5</v>
-      </c>
-      <c r="L6" s="10">
-        <v>78</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" s="12"/>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>5</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="10">
-        <v>50</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0</v>
-      </c>
-      <c r="E7" s="10">
-        <v>20</v>
-      </c>
-      <c r="F7" s="10">
-        <v>25</v>
-      </c>
-      <c r="G7" s="10">
-        <v>10</v>
-      </c>
-      <c r="H7" s="10">
-        <v>0</v>
-      </c>
-      <c r="I7" s="10">
-        <v>100</v>
-      </c>
-      <c r="J7" s="10">
-        <v>5</v>
-      </c>
-      <c r="K7" s="10">
-        <v>5</v>
-      </c>
-      <c r="L7" s="10">
-        <v>78</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>20</v>
+      <c r="L7" s="11">
+        <v>88</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="N7" s="12"/>
       <c r="O7" s="1"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="8">
+        <v>60</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8">
+        <v>250</v>
+      </c>
+      <c r="F8" s="8">
+        <v>10</v>
+      </c>
+      <c r="G8" s="8">
+        <v>10</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8">
+        <v>100</v>
+      </c>
+      <c r="J8" s="8">
+        <v>3</v>
+      </c>
+      <c r="K8" s="8">
+        <v>5</v>
+      </c>
+      <c r="L8" s="8">
+        <v>79</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="9"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="8">
+        <v>60</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
+        <v>250</v>
+      </c>
+      <c r="F9" s="8">
+        <v>10</v>
+      </c>
+      <c r="G9" s="8">
+        <v>10</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8">
+        <v>100</v>
+      </c>
+      <c r="J9" s="8">
+        <v>3</v>
+      </c>
+      <c r="K9" s="8">
+        <v>5</v>
+      </c>
+      <c r="L9" s="8">
+        <v>79</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" s="9"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="8">
+        <v>60</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8">
+        <v>250</v>
+      </c>
+      <c r="F10" s="8">
+        <v>10</v>
+      </c>
+      <c r="G10" s="8">
+        <v>10</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8">
+        <v>100</v>
+      </c>
+      <c r="J10" s="8">
+        <v>3</v>
+      </c>
+      <c r="K10" s="8">
+        <v>5</v>
+      </c>
+      <c r="L10" s="8">
+        <v>79</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="9"/>
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="8">
+        <v>60</v>
+      </c>
+      <c r="D11" s="8">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8">
+        <v>250</v>
+      </c>
+      <c r="F11" s="8">
+        <v>10</v>
+      </c>
+      <c r="G11" s="8">
+        <v>10</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8">
+        <v>100</v>
+      </c>
+      <c r="J11" s="8">
+        <v>3</v>
+      </c>
+      <c r="K11" s="8">
+        <v>5</v>
+      </c>
+      <c r="L11" s="8">
+        <v>79</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="9"/>
+      <c r="O11" s="4"/>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="8">
+        <v>60</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8">
+        <v>250</v>
+      </c>
+      <c r="F12" s="8">
+        <v>10</v>
+      </c>
+      <c r="G12" s="8">
+        <v>10</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8">
+        <v>100</v>
+      </c>
+      <c r="J12" s="8">
+        <v>3</v>
+      </c>
+      <c r="K12" s="8">
+        <v>5</v>
+      </c>
+      <c r="L12" s="8">
+        <v>79</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>11</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="8">
+        <v>60</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8">
+        <v>250</v>
+      </c>
+      <c r="F13" s="8">
+        <v>10</v>
+      </c>
+      <c r="G13" s="8">
+        <v>10</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8">
+        <v>100</v>
+      </c>
+      <c r="J13" s="8">
+        <v>3</v>
+      </c>
+      <c r="K13" s="8">
+        <v>5</v>
+      </c>
+      <c r="L13" s="8">
+        <v>79</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>12</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="8">
+        <v>60</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8">
+        <v>250</v>
+      </c>
+      <c r="F14" s="8">
+        <v>10</v>
+      </c>
+      <c r="G14" s="8">
+        <v>10</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0</v>
+      </c>
+      <c r="I14" s="8">
+        <v>100</v>
+      </c>
+      <c r="J14" s="8">
+        <v>3</v>
+      </c>
+      <c r="K14" s="8">
+        <v>5</v>
+      </c>
+      <c r="L14" s="8">
+        <v>79</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
         <v>13</v>
       </c>
-      <c r="C8" s="10">
-        <v>50</v>
-      </c>
-      <c r="D8" s="10">
-        <v>0</v>
-      </c>
-      <c r="E8" s="10">
-        <v>20</v>
-      </c>
-      <c r="F8" s="10">
-        <v>10</v>
-      </c>
-      <c r="G8" s="10">
-        <v>25</v>
-      </c>
-      <c r="H8" s="10">
-        <v>0</v>
-      </c>
-      <c r="I8" s="10">
+      <c r="B15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="8">
+        <v>60</v>
+      </c>
+      <c r="D15" s="8">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8">
+        <v>250</v>
+      </c>
+      <c r="F15" s="8">
+        <v>10</v>
+      </c>
+      <c r="G15" s="8">
+        <v>10</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0</v>
+      </c>
+      <c r="I15" s="8">
         <v>100</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J15" s="8">
+        <v>3</v>
+      </c>
+      <c r="K15" s="8">
         <v>5</v>
       </c>
-      <c r="K8" s="10">
+      <c r="L15" s="8">
+        <v>79</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <v>14</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="8">
+        <v>60</v>
+      </c>
+      <c r="D16" s="8">
+        <v>0</v>
+      </c>
+      <c r="E16" s="8">
+        <v>250</v>
+      </c>
+      <c r="F16" s="8">
+        <v>10</v>
+      </c>
+      <c r="G16" s="8">
+        <v>10</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0</v>
+      </c>
+      <c r="I16" s="8">
+        <v>100</v>
+      </c>
+      <c r="J16" s="8">
+        <v>3</v>
+      </c>
+      <c r="K16" s="8">
         <v>5</v>
       </c>
-      <c r="L8" s="10">
-        <v>78</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" s="12"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="10">
+      <c r="L16" s="8">
+        <v>79</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>15</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="8">
         <v>60</v>
       </c>
-      <c r="D9" s="10">
-        <v>0</v>
-      </c>
-      <c r="E9" s="10">
-        <v>400</v>
-      </c>
-      <c r="F9" s="10">
-        <v>7</v>
-      </c>
-      <c r="G9" s="10">
-        <v>7</v>
-      </c>
-      <c r="H9" s="10">
-        <v>0</v>
-      </c>
-      <c r="I9" s="10">
+      <c r="D17" s="8">
+        <v>0</v>
+      </c>
+      <c r="E17" s="8">
+        <v>250</v>
+      </c>
+      <c r="F17" s="8">
+        <v>10</v>
+      </c>
+      <c r="G17" s="8">
+        <v>10</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0</v>
+      </c>
+      <c r="I17" s="8">
         <v>100</v>
       </c>
-      <c r="J9" s="10">
-        <v>7</v>
-      </c>
-      <c r="K9" s="10">
+      <c r="J17" s="8">
+        <v>3</v>
+      </c>
+      <c r="K17" s="8">
         <v>5</v>
       </c>
-      <c r="L9" s="10">
-        <v>82</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" s="12"/>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>8</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="10">
+      <c r="L17" s="8">
+        <v>79</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <v>16</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="8">
         <v>60</v>
       </c>
-      <c r="D10" s="10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="10">
-        <v>400</v>
-      </c>
-      <c r="F10" s="10">
-        <v>12</v>
-      </c>
-      <c r="G10" s="10">
-        <v>12</v>
-      </c>
-      <c r="H10" s="10">
-        <v>0</v>
-      </c>
-      <c r="I10" s="10">
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+      <c r="E18" s="8">
+        <v>250</v>
+      </c>
+      <c r="F18" s="8">
+        <v>10</v>
+      </c>
+      <c r="G18" s="8">
+        <v>10</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0</v>
+      </c>
+      <c r="I18" s="8">
         <v>100</v>
       </c>
-      <c r="J10" s="10">
-        <v>6</v>
-      </c>
-      <c r="K10" s="10">
+      <c r="J18" s="8">
+        <v>3</v>
+      </c>
+      <c r="K18" s="8">
         <v>5</v>
       </c>
-      <c r="L10" s="10">
-        <v>82</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N10" s="12"/>
-      <c r="O10" s="4"/>
-    </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>9</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="10">
-        <v>0</v>
-      </c>
-      <c r="D11" s="10">
+      <c r="L18" s="8">
+        <v>79</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>17</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="8">
         <v>60</v>
       </c>
-      <c r="E11" s="10">
-        <v>400</v>
-      </c>
-      <c r="F11" s="10">
-        <v>10</v>
-      </c>
-      <c r="G11" s="10">
+      <c r="D19" s="8">
+        <v>0</v>
+      </c>
+      <c r="E19" s="8">
+        <v>250</v>
+      </c>
+      <c r="F19" s="8">
+        <v>10</v>
+      </c>
+      <c r="G19" s="8">
+        <v>10</v>
+      </c>
+      <c r="H19" s="8">
+        <v>0</v>
+      </c>
+      <c r="I19" s="8">
+        <v>100</v>
+      </c>
+      <c r="J19" s="8">
+        <v>3</v>
+      </c>
+      <c r="K19" s="8">
+        <v>5</v>
+      </c>
+      <c r="L19" s="8">
+        <v>79</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
         <v>18</v>
       </c>
-      <c r="H11" s="10">
-        <v>0</v>
-      </c>
-      <c r="I11" s="10">
+      <c r="B20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="8">
+        <v>60</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+      <c r="E20" s="8">
+        <v>250</v>
+      </c>
+      <c r="F20" s="8">
+        <v>10</v>
+      </c>
+      <c r="G20" s="8">
+        <v>10</v>
+      </c>
+      <c r="H20" s="8">
+        <v>0</v>
+      </c>
+      <c r="I20" s="8">
         <v>100</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J20" s="8">
+        <v>3</v>
+      </c>
+      <c r="K20" s="8">
         <v>5</v>
       </c>
-      <c r="K11" s="10">
-        <v>5</v>
-      </c>
-      <c r="L11" s="10">
-        <v>78</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N11" s="12"/>
-      <c r="O11" s="4"/>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>10</v>
-      </c>
-      <c r="B12" s="9" t="s">
+      <c r="L20" s="8">
+        <v>79</v>
+      </c>
+      <c r="M20" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="10">
-        <v>71</v>
-      </c>
-      <c r="D12" s="10">
-        <v>71</v>
-      </c>
-      <c r="E12" s="10">
-        <v>71</v>
-      </c>
-      <c r="F12" s="10">
-        <v>71</v>
-      </c>
-      <c r="G12" s="10">
-        <v>71</v>
-      </c>
-      <c r="H12" s="10">
-        <v>0</v>
-      </c>
-      <c r="I12" s="10">
-        <v>100</v>
-      </c>
-      <c r="J12" s="10">
-        <v>71</v>
-      </c>
-      <c r="K12" s="10">
-        <v>5</v>
-      </c>
-      <c r="L12" s="14">
-        <v>71</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N12" s="12"/>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="1"/>
-      <c r="N13" s="4"/>
-    </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="1"/>
-      <c r="N14" s="4"/>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="1"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>19</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N21" s="14"/>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="5"/>
       <c r="C22" s="3"/>
@@ -1160,7 +1627,7 @@
       <c r="K22" s="3"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="5"/>
       <c r="C23" s="3"/>
@@ -1174,7 +1641,7 @@
       <c r="K23" s="3"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="5"/>
       <c r="C24" s="3"/>
@@ -1188,7 +1655,7 @@
       <c r="K24" s="3"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="5"/>
       <c r="C25" s="3"/>
@@ -1202,7 +1669,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="5"/>
       <c r="C26" s="3"/>
@@ -1216,7 +1683,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="5"/>
       <c r="C27" s="3"/>
@@ -1230,7 +1697,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="5"/>
       <c r="C28" s="3"/>
@@ -1244,7 +1711,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="5"/>
       <c r="C29" s="3"/>
@@ -1258,7 +1725,7 @@
       <c r="K29" s="3"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="5"/>
       <c r="C30" s="3"/>
@@ -1272,8 +1739,8 @@
       <c r="K30" s="3"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Assets/Shared/ExcelImporter/Excels/Enemy/EnemyDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Enemy/EnemyDataSheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Enemy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungwoo\Documents\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Enemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8649C0-A8BB-4A3D-9937-85C5ACE42CB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-210" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-210" windowWidth="19440" windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyExcelDatas" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -318,7 +317,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -441,7 +440,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -464,11 +463,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -503,6 +513,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -719,14 +732,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -804,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="8">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="F2" s="8">
         <v>5</v>
@@ -831,6 +844,9 @@
         <v>25</v>
       </c>
       <c r="N2" s="9"/>
+      <c r="O2" s="16">
+        <v>200</v>
+      </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -846,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="8">
-        <v>240</v>
+        <v>1</v>
       </c>
       <c r="F3" s="8">
         <v>7</v>
@@ -873,6 +889,9 @@
         <v>26</v>
       </c>
       <c r="N3" s="9"/>
+      <c r="O3" s="16">
+        <v>240</v>
+      </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
@@ -888,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="8">
-        <v>280</v>
+        <v>1</v>
       </c>
       <c r="F4" s="8">
         <v>9</v>
@@ -915,7 +934,9 @@
         <v>28</v>
       </c>
       <c r="N4" s="9"/>
-      <c r="O4" s="1"/>
+      <c r="O4" s="1">
+        <v>280</v>
+      </c>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">

--- a/Assets/Shared/ExcelImporter/Excels/Enemy/EnemyDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Enemy/EnemyDataSheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungwoo\Documents\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Enemy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Enemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D65631C-20B1-4DA5-A8B6-EA27C9772CC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-210" windowWidth="19440" windowHeight="15000"/>
+    <workbookView xWindow="28680" yWindow="-210" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyExcelDatas" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -317,7 +318,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -732,14 +733,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -817,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="8">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F2" s="8">
         <v>5</v>
@@ -844,9 +845,7 @@
         <v>25</v>
       </c>
       <c r="N2" s="9"/>
-      <c r="O2" s="16">
-        <v>200</v>
-      </c>
+      <c r="O2" s="16"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
@@ -862,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="8">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="F3" s="8">
         <v>7</v>
@@ -889,9 +888,7 @@
         <v>26</v>
       </c>
       <c r="N3" s="9"/>
-      <c r="O3" s="16">
-        <v>240</v>
-      </c>
+      <c r="O3" s="16"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
@@ -907,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="8">
-        <v>1</v>
+        <v>280</v>
       </c>
       <c r="F4" s="8">
         <v>9</v>
@@ -934,9 +931,7 @@
         <v>28</v>
       </c>
       <c r="N4" s="9"/>
-      <c r="O4" s="1">
-        <v>280</v>
-      </c>
+      <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">

--- a/Assets/Shared/ExcelImporter/Excels/Enemy/EnemyDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Enemy/EnemyDataSheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Enemy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungwoo\Documents\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Enemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D65631C-20B1-4DA5-A8B6-EA27C9772CC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-210" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-216" windowWidth="19440" windowHeight="15000"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyExcelDatas" sheetId="1" r:id="rId1"/>
@@ -318,7 +317,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -733,34 +732,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="6.5546875" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.42578125" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.109375" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.44140625" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="42.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="33.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
@@ -804,9 +803,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>14</v>
@@ -847,9 +846,9 @@
       <c r="N2" s="9"/>
       <c r="O2" s="16"/>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>15</v>
@@ -890,9 +889,9 @@
       <c r="N3" s="9"/>
       <c r="O3" s="16"/>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>29</v>
@@ -933,9 +932,9 @@
       <c r="N4" s="9"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>30</v>
@@ -976,9 +975,9 @@
       <c r="N5" s="9"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>16</v>
@@ -1019,9 +1018,9 @@
       <c r="N6" s="9"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>24</v>
@@ -1062,9 +1061,9 @@
       <c r="N7" s="12"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>18</v>
@@ -1105,9 +1104,9 @@
       <c r="N8" s="9"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>19</v>
@@ -1148,9 +1147,9 @@
       <c r="N9" s="9"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>20</v>
@@ -1191,9 +1190,9 @@
       <c r="N10" s="9"/>
       <c r="O10" s="4"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>21</v>
@@ -1234,9 +1233,9 @@
       <c r="N11" s="9"/>
       <c r="O11" s="4"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>22</v>
@@ -1276,9 +1275,9 @@
       </c>
       <c r="N12" s="9"/>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>22</v>
@@ -1318,9 +1317,9 @@
       </c>
       <c r="N13" s="4"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>22</v>
@@ -1360,9 +1359,9 @@
       </c>
       <c r="N14" s="4"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>22</v>
@@ -1402,9 +1401,9 @@
       </c>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>22</v>
@@ -1443,9 +1442,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>22</v>
@@ -1484,9 +1483,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>22</v>
@@ -1525,9 +1524,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>22</v>
@@ -1566,9 +1565,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>22</v>
@@ -1607,9 +1606,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>23</v>
@@ -1629,7 +1628,7 @@
       </c>
       <c r="N21" s="14"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="5"/>
       <c r="C22" s="3"/>
@@ -1643,7 +1642,7 @@
       <c r="K22" s="3"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="5"/>
       <c r="C23" s="3"/>
@@ -1657,7 +1656,7 @@
       <c r="K23" s="3"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="5"/>
       <c r="C24" s="3"/>
@@ -1671,7 +1670,7 @@
       <c r="K24" s="3"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="5"/>
       <c r="C25" s="3"/>
@@ -1685,7 +1684,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="5"/>
       <c r="C26" s="3"/>
@@ -1699,7 +1698,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="5"/>
       <c r="C27" s="3"/>
@@ -1713,7 +1712,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="5"/>
       <c r="C28" s="3"/>
@@ -1727,7 +1726,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="5"/>
       <c r="C29" s="3"/>
@@ -1741,7 +1740,7 @@
       <c r="K29" s="3"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="5"/>
       <c r="C30" s="3"/>
@@ -1755,976 +1754,976 @@
       <c r="K30" s="3"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Shared/ExcelImporter/Excels/Enemy/EnemyDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Enemy/EnemyDataSheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
   <si>
     <t>Name</t>
   </si>
@@ -72,39 +72,6 @@
   <si>
     <t>RuntimeAnimatorControllerPath</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>스컬</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>녹</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
   </si>
   <si>
     <r>
@@ -311,6 +278,14 @@
   </si>
   <si>
     <t>Images/Enemy/Skull/King</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Controllers/Enemy/Slime</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라임</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -478,7 +453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -516,6 +491,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -739,7 +720,7 @@
   <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -807,8 +788,8 @@
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>14</v>
+      <c r="B2" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="C2" s="8">
         <v>50</v>
@@ -841,9 +822,11 @@
         <v>77</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>32</v>
+      </c>
       <c r="O2" s="16"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -851,7 +834,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="8">
         <v>58</v>
@@ -884,7 +867,7 @@
         <v>78</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N3" s="9"/>
       <c r="O3" s="16"/>
@@ -894,7 +877,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="8">
         <v>66</v>
@@ -927,7 +910,7 @@
         <v>79</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N4" s="9"/>
       <c r="O4" s="1"/>
@@ -937,7 +920,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="8">
         <v>74</v>
@@ -970,7 +953,7 @@
         <v>80</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N5" s="9"/>
       <c r="O5" s="1"/>
@@ -980,7 +963,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="8">
         <v>82</v>
@@ -1013,7 +996,7 @@
         <v>81</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N6" s="9"/>
       <c r="O6" s="1"/>
@@ -1023,7 +1006,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="11">
         <v>110</v>
@@ -1056,7 +1039,7 @@
         <v>88</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N7" s="12"/>
       <c r="O7" s="1"/>
@@ -1066,7 +1049,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="8">
         <v>60</v>
@@ -1099,7 +1082,7 @@
         <v>79</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N8" s="9"/>
       <c r="O8" s="1"/>
@@ -1109,7 +1092,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="8">
         <v>60</v>
@@ -1142,7 +1125,7 @@
         <v>79</v>
       </c>
       <c r="M9" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N9" s="9"/>
       <c r="O9" s="1"/>
@@ -1152,7 +1135,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="8">
         <v>60</v>
@@ -1185,7 +1168,7 @@
         <v>79</v>
       </c>
       <c r="M10" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N10" s="9"/>
       <c r="O10" s="4"/>
@@ -1195,7 +1178,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="8">
         <v>60</v>
@@ -1228,7 +1211,7 @@
         <v>79</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N11" s="9"/>
       <c r="O11" s="4"/>
@@ -1238,7 +1221,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="8">
         <v>60</v>
@@ -1271,7 +1254,7 @@
         <v>79</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N12" s="9"/>
     </row>
@@ -1280,7 +1263,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="8">
         <v>60</v>
@@ -1313,7 +1296,7 @@
         <v>79</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N13" s="4"/>
     </row>
@@ -1322,7 +1305,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="8">
         <v>60</v>
@@ -1355,7 +1338,7 @@
         <v>79</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N14" s="4"/>
     </row>
@@ -1364,7 +1347,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="8">
         <v>60</v>
@@ -1397,7 +1380,7 @@
         <v>79</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N15" s="1"/>
     </row>
@@ -1406,7 +1389,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="8">
         <v>60</v>
@@ -1439,7 +1422,7 @@
         <v>79</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1447,7 +1430,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="8">
         <v>60</v>
@@ -1480,7 +1463,7 @@
         <v>79</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1488,7 +1471,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="8">
         <v>60</v>
@@ -1521,7 +1504,7 @@
         <v>79</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1529,7 +1512,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="8">
         <v>60</v>
@@ -1562,7 +1545,7 @@
         <v>79</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1570,7 +1553,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="8">
         <v>60</v>
@@ -1603,7 +1586,7 @@
         <v>79</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1611,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
@@ -1624,7 +1607,7 @@
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
       <c r="M21" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N21" s="14"/>
     </row>

--- a/Assets/Shared/ExcelImporter/Excels/Enemy/EnemyDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Enemy/EnemyDataSheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungwoo\Documents\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Enemy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Enemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54944ECD-DE87-490E-BBE8-3D63F4154FA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-216" windowWidth="19440" windowHeight="15000"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnemyExcelDatas" sheetId="1" r:id="rId1"/>
@@ -292,7 +293,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -713,34 +714,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="6.5546875" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="6.109375" customWidth="1"/>
-    <col min="9" max="9" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.44140625" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="42.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="33.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
@@ -784,7 +785,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -827,9 +828,11 @@
       <c r="N2" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="16"/>
-    </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O2" s="16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -843,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="8">
-        <v>240</v>
+        <v>1</v>
       </c>
       <c r="F3" s="8">
         <v>7</v>
@@ -870,9 +873,11 @@
         <v>25</v>
       </c>
       <c r="N3" s="9"/>
-      <c r="O3" s="16"/>
-    </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O3" s="16">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -886,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="8">
-        <v>280</v>
+        <v>1</v>
       </c>
       <c r="F4" s="8">
         <v>9</v>
@@ -913,9 +918,11 @@
         <v>27</v>
       </c>
       <c r="N4" s="9"/>
-      <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="O4" s="1">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -929,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="8">
-        <v>320</v>
+        <v>1</v>
       </c>
       <c r="F5" s="8">
         <v>10</v>
@@ -956,9 +963,11 @@
         <v>30</v>
       </c>
       <c r="N5" s="9"/>
-      <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O5" s="1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -972,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="8">
-        <v>360</v>
+        <v>1</v>
       </c>
       <c r="F6" s="8">
         <v>15</v>
@@ -999,9 +1008,11 @@
         <v>26</v>
       </c>
       <c r="N6" s="9"/>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O6" s="1">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -1044,7 +1055,7 @@
       <c r="N7" s="12"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1087,7 +1098,7 @@
       <c r="N8" s="9"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1130,7 +1141,7 @@
       <c r="N9" s="9"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -1173,7 +1184,7 @@
       <c r="N10" s="9"/>
       <c r="O10" s="4"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1216,7 +1227,7 @@
       <c r="N11" s="9"/>
       <c r="O11" s="4"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -1258,7 +1269,7 @@
       </c>
       <c r="N12" s="9"/>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -1300,7 +1311,7 @@
       </c>
       <c r="N13" s="4"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -1342,7 +1353,7 @@
       </c>
       <c r="N14" s="4"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -1384,7 +1395,7 @@
       </c>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -1425,7 +1436,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -1466,7 +1477,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -1507,7 +1518,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -1548,7 +1559,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -1589,7 +1600,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>20</v>
       </c>
@@ -1611,7 +1622,7 @@
       </c>
       <c r="N21" s="14"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="5"/>
       <c r="C22" s="3"/>
@@ -1625,7 +1636,7 @@
       <c r="K22" s="3"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="5"/>
       <c r="C23" s="3"/>
@@ -1639,7 +1650,7 @@
       <c r="K23" s="3"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="5"/>
       <c r="C24" s="3"/>
@@ -1653,7 +1664,7 @@
       <c r="K24" s="3"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="5"/>
       <c r="C25" s="3"/>
@@ -1667,7 +1678,7 @@
       <c r="K25" s="3"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="5"/>
       <c r="C26" s="3"/>
@@ -1681,7 +1692,7 @@
       <c r="K26" s="3"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="5"/>
       <c r="C27" s="3"/>
@@ -1695,7 +1706,7 @@
       <c r="K27" s="3"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="5"/>
       <c r="C28" s="3"/>
@@ -1709,7 +1720,7 @@
       <c r="K28" s="3"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="5"/>
       <c r="C29" s="3"/>
@@ -1723,7 +1734,7 @@
       <c r="K29" s="3"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="5"/>
       <c r="C30" s="3"/>
@@ -1737,976 +1748,976 @@
       <c r="K30" s="3"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
